--- a/resources/experiment 1/predictions/single/LinearRegression/average time/Retinopatía de fondo.xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/average time/Retinopatía de fondo.xlsx
@@ -455,7 +455,7 @@
         <v>13.00511919294873</v>
       </c>
       <c r="B2" t="n">
-        <v>9.305527200631609</v>
+        <v>9.305527200631611</v>
       </c>
       <c r="C2" t="n">
         <v>17.37057897901046</v>
@@ -466,7 +466,7 @@
         <v>23.87619949077411</v>
       </c>
       <c r="B3" t="n">
-        <v>16.10604643769982</v>
+        <v>16.10604643769983</v>
       </c>
       <c r="C3" t="n">
         <v>32.10535012218341</v>
@@ -485,13 +485,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25.4579871884107</v>
+        <v>25.45798718841069</v>
       </c>
       <c r="B5" t="n">
         <v>17.24042144715613</v>
       </c>
       <c r="C5" t="n">
-        <v>34.18374139715317</v>
+        <v>34.18374139715316</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.583772415283077</v>
+        <v>-2.583772415283068</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.8718719596676969</v>
+        <v>-0.8718719596677023</v>
       </c>
       <c r="C8" t="n">
         <v>-3.602130471382697</v>
@@ -540,13 +540,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.710223218954807</v>
+        <v>-1.7102232189548</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2259491395260955</v>
+        <v>-0.2259491395261009</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.571228280830674</v>
+        <v>-2.571228280830677</v>
       </c>
     </row>
     <row r="11">
@@ -562,7 +562,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>17.93228707978454</v>
+        <v>17.93228707978453</v>
       </c>
       <c r="B12" t="n">
         <v>12.59822902932335</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.980286734195964</v>
+        <v>3.980286734195968</v>
       </c>
       <c r="B13" t="n">
-        <v>3.607695088755979</v>
+        <v>3.607695088755976</v>
       </c>
       <c r="C13" t="n">
         <v>5.008757024953111</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.452117727066916</v>
+        <v>6.452117727066919</v>
       </c>
       <c r="B14" t="n">
-        <v>5.120099087849816</v>
+        <v>5.120099087849814</v>
       </c>
       <c r="C14" t="n">
         <v>8.437488745419293</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>27.03977488604728</v>
+        <v>27.03977488604727</v>
       </c>
       <c r="B15" t="n">
-        <v>18.37479645661243</v>
+        <v>18.37479645661244</v>
       </c>
       <c r="C15" t="n">
         <v>36.26213267212292</v>
@@ -609,7 +609,7 @@
         <v>19.64077600634052</v>
       </c>
       <c r="B16" t="n">
-        <v>13.56969062882685</v>
+        <v>13.56969062882686</v>
       </c>
       <c r="C16" t="n">
         <v>26.29537576566877</v>
@@ -620,7 +620,7 @@
         <v>17.82207994977123</v>
       </c>
       <c r="B17" t="n">
-        <v>12.49324860877208</v>
+        <v>12.49324860877209</v>
       </c>
       <c r="C17" t="n">
         <v>23.91966209424223</v>
@@ -653,7 +653,7 @@
         <v>21.16746013897045</v>
       </c>
       <c r="B20" t="n">
-        <v>14.65157542800752</v>
+        <v>14.65157542800753</v>
       </c>
       <c r="C20" t="n">
         <v>28.37929600526043</v>
@@ -672,21 +672,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.8917775876331895</v>
+        <v>-0.8917775876331824</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3674834703398719</v>
+        <v>0.3674834703398666</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.534797125656748</v>
+        <v>-1.534797125656752</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>27.72046160485227</v>
+        <v>27.72046160485226</v>
       </c>
       <c r="B23" t="n">
-        <v>18.83700354078931</v>
+        <v>18.83700354078932</v>
       </c>
       <c r="C23" t="n">
         <v>37.3123862388516</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>19.66832778884385</v>
+        <v>19.66832778884384</v>
       </c>
       <c r="B24" t="n">
         <v>13.59593573396467</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>23.61173934933808</v>
+        <v>23.61173934933807</v>
       </c>
       <c r="B26" t="n">
-        <v>16.13773432196354</v>
+        <v>16.13773432196355</v>
       </c>
       <c r="C26" t="n">
         <v>31.81079220803757</v>
@@ -727,13 +727,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.506970866825895</v>
+        <v>5.506970866825899</v>
       </c>
       <c r="B27" t="n">
-        <v>4.68957988793665</v>
+        <v>4.689579887936646</v>
       </c>
       <c r="C27" t="n">
-        <v>7.092677264544767</v>
+        <v>7.092677264544765</v>
       </c>
     </row>
     <row r="28">
@@ -749,10 +749,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28.51135545367056</v>
+        <v>28.51135545367055</v>
       </c>
       <c r="B29" t="n">
-        <v>19.40419104551746</v>
+        <v>19.40419104551747</v>
       </c>
       <c r="C29" t="n">
         <v>38.35158187633647</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>17.05873788345627</v>
+        <v>17.05873788345626</v>
       </c>
       <c r="B30" t="n">
         <v>11.95230620918175</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.578568530738647</v>
+        <v>5.578568530738651</v>
       </c>
       <c r="B31" t="n">
-        <v>4.474176267708216</v>
+        <v>4.474176267708213</v>
       </c>
       <c r="C31" t="n">
         <v>7.406586554867271</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.635156970244415</v>
+        <v>1.63515697024442</v>
       </c>
       <c r="B32" t="n">
-        <v>1.932377679709342</v>
+        <v>1.932377679709337</v>
       </c>
       <c r="C32" t="n">
         <v>1.888405630187529</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.479669509570242</v>
+        <v>6.479669509570245</v>
       </c>
       <c r="B33" t="n">
-        <v>5.146344192987632</v>
+        <v>5.14634419298763</v>
       </c>
       <c r="C33" t="n">
         <v>8.434724263108341</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>20.43166985515882</v>
+        <v>20.43166985515881</v>
       </c>
       <c r="B35" t="n">
-        <v>14.136878133555</v>
+        <v>14.13687813355501</v>
       </c>
       <c r="C35" t="n">
         <v>27.33457140315365</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7.951250077193521</v>
+        <v>7.951250077193524</v>
       </c>
       <c r="B38" t="n">
-        <v>6.175738781892671</v>
+        <v>6.175738781892667</v>
       </c>
       <c r="C38" t="n">
         <v>10.5241734673219</v>
@@ -862,7 +862,7 @@
         <v>18.6956291460995</v>
       </c>
       <c r="B39" t="n">
-        <v>13.13917142891368</v>
+        <v>13.13917142891369</v>
       </c>
       <c r="C39" t="n">
         <v>24.95056428479425</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>22.08505521670815</v>
+        <v>22.08505521670814</v>
       </c>
       <c r="B40" t="n">
-        <v>15.05584952278287</v>
+        <v>15.05584952278288</v>
       </c>
       <c r="C40" t="n">
         <v>29.72687196844591</v>
@@ -895,7 +895,7 @@
         <v>10.53328820007778</v>
       </c>
       <c r="B42" t="n">
-        <v>7.793123201537773</v>
+        <v>7.793123201537772</v>
       </c>
       <c r="C42" t="n">
         <v>13.94184725854428</v>
@@ -906,7 +906,7 @@
         <v>17.03118610095294</v>
       </c>
       <c r="B43" t="n">
-        <v>11.92606110404393</v>
+        <v>11.92606110404394</v>
       </c>
       <c r="C43" t="n">
         <v>22.88046645675735</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7.397264587307937</v>
+        <v>7.397264587307939</v>
       </c>
       <c r="B44" t="n">
-        <v>5.550618287762983</v>
+        <v>5.550618287762981</v>
       </c>
       <c r="C44" t="n">
         <v>9.78230022629382</v>
@@ -928,7 +928,7 @@
         <v>12.03242055020438</v>
       </c>
       <c r="B45" t="n">
-        <v>8.848762895580627</v>
+        <v>8.848762895580625</v>
       </c>
       <c r="C45" t="n">
         <v>16.02853198044689</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4.787674681920356</v>
+        <v>4.787674681920359</v>
       </c>
       <c r="B46" t="n">
-        <v>3.906988762980065</v>
+        <v>3.906988762980061</v>
       </c>
       <c r="C46" t="n">
         <v>6.367390917382394</v>
@@ -947,13 +947,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.1835390863248758</v>
+        <v>-0.1835390863248687</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8559356596545733</v>
+        <v>0.8559356596545697</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.4873080412390181</v>
+        <v>-0.4873080412390216</v>
       </c>
     </row>
     <row r="48">
@@ -972,7 +972,7 @@
         <v>21.37681671539983</v>
       </c>
       <c r="B49" t="n">
-        <v>14.56739733346817</v>
+        <v>14.56739733346818</v>
       </c>
       <c r="C49" t="n">
         <v>28.67938288402818</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>23.82109592576746</v>
+        <v>23.82109592576745</v>
       </c>
       <c r="B51" t="n">
-        <v>16.05355622742419</v>
+        <v>16.0535562274242</v>
       </c>
       <c r="C51" t="n">
         <v>32.11087908680531</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4.106987963115367</v>
+        <v>4.106987963115371</v>
       </c>
       <c r="B52" t="n">
-        <v>3.444781678803179</v>
+        <v>3.444781678803176</v>
       </c>
       <c r="C52" t="n">
         <v>5.317137350653713</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>26.98467132104063</v>
+        <v>26.98467132104062</v>
       </c>
       <c r="B54" t="n">
         <v>18.3223062463368</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>23.69439469684806</v>
+        <v>23.69439469684805</v>
       </c>
       <c r="B55" t="n">
-        <v>16.21646963737699</v>
+        <v>16.216469637377</v>
       </c>
       <c r="C55" t="n">
         <v>31.80249876110471</v>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.716327443255277</v>
+        <v>5.716327443255279</v>
       </c>
       <c r="B56" t="n">
-        <v>4.605401793397298</v>
+        <v>4.605401793397295</v>
       </c>
       <c r="C56" t="n">
         <v>7.392764143312514</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.607605187741088</v>
+        <v>1.607605187741095</v>
       </c>
       <c r="B57" t="n">
-        <v>1.906132574571526</v>
+        <v>1.906132574571521</v>
       </c>
       <c r="C57" t="n">
         <v>1.891170112498481</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>24.4301849806597</v>
+        <v>24.43018498065969</v>
       </c>
       <c r="B58" t="n">
         <v>16.73116693182951</v>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>8.896396937434542</v>
+        <v>8.896396937434545</v>
       </c>
       <c r="B59" t="n">
-        <v>6.606257981805838</v>
+        <v>6.606257981805836</v>
       </c>
       <c r="C59" t="n">
         <v>11.86898494819643</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>27.80311695236225</v>
+        <v>27.80311695236224</v>
       </c>
       <c r="B60" t="n">
-        <v>18.91573885620276</v>
+        <v>18.91573885620277</v>
       </c>
       <c r="C60" t="n">
         <v>37.30409279191875</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7.243011575885207</v>
+        <v>7.243011575885211</v>
       </c>
       <c r="B61" t="n">
-        <v>5.687286592577967</v>
+        <v>5.687286592577966</v>
       </c>
       <c r="C61" t="n">
         <v>9.476684382904169</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9.769946133762812</v>
+        <v>9.769946133762813</v>
       </c>
       <c r="B62" t="n">
         <v>7.252180801947437</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>8.824799273521791</v>
+        <v>8.824799273521792</v>
       </c>
       <c r="B63" t="n">
-        <v>6.82166160203427</v>
+        <v>6.821661602034268</v>
       </c>
       <c r="C63" t="n">
         <v>11.55507565787392</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>27.77556516985892</v>
+        <v>27.77556516985891</v>
       </c>
       <c r="B64" t="n">
         <v>18.88949375106495</v>
@@ -1145,18 +1145,18 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.789159556419472</v>
+        <v>0.7891595564194773</v>
       </c>
       <c r="B65" t="n">
-        <v>1.312699964705558</v>
+        <v>1.312699964705554</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8547389573245567</v>
+        <v>0.854738957324555</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>14.64201045559197</v>
+        <v>14.64201045559196</v>
       </c>
       <c r="B66" t="n">
         <v>10.49239242036355</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>22.95860441303642</v>
+        <v>22.95860441303641</v>
       </c>
       <c r="B68" t="n">
-        <v>15.70177234292447</v>
+        <v>15.70177234292448</v>
       </c>
       <c r="C68" t="n">
         <v>30.75777415899793</v>
@@ -1189,18 +1189,18 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.1008837388148986</v>
+        <v>-0.1008837388148915</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9346709750680233</v>
+        <v>0.934670975068018</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.4956014881718716</v>
+        <v>-0.4956014881718751</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>22.05750343420483</v>
+        <v>22.05750343420482</v>
       </c>
       <c r="B70" t="n">
         <v>15.02960441764506</v>
@@ -1214,7 +1214,7 @@
         <v>13.95026605318975</v>
       </c>
       <c r="B71" t="n">
-        <v>9.736046400544776</v>
+        <v>9.736046400544778</v>
       </c>
       <c r="C71" t="n">
         <v>18.71539045988499</v>
